--- a/Matrices de decisión/Matriz de Pugh - Javier Gutierrez.xlsx
+++ b/Matrices de decisión/Matriz de Pugh - Javier Gutierrez.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\javie\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Documents\GitHub\Dis.-Mecatronico-E6\Matrices de decisión\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{75817F1C-C5AA-4935-BEA7-A202FA6E5FA5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F6685BA-6A1A-48F7-832B-C56B993329D0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20610" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{AB902473-D7E3-4A97-93D7-A92E6EF44DB0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AB902473-D7E3-4A97-93D7-A92E6EF44DB0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -177,7 +177,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -186,13 +189,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -213,7 +213,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -512,267 +512,267 @@
   <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="4" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2"/>
+      <c r="E1" s="7"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="2"/>
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="7"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
     </row>
     <row r="5" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="4">
         <v>1</v>
       </c>
-      <c r="C5" s="3">
-        <v>0</v>
-      </c>
-      <c r="D5" s="3">
+      <c r="C5" s="4">
+        <v>0</v>
+      </c>
+      <c r="D5" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
     </row>
     <row r="7" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="4">
         <v>1</v>
       </c>
-      <c r="C7" s="3">
-        <v>0</v>
-      </c>
-      <c r="D7" s="3">
+      <c r="C7" s="4">
+        <v>0</v>
+      </c>
+      <c r="D7" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
     </row>
     <row r="9" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="4">
         <v>1</v>
       </c>
-      <c r="C9" s="3">
-        <v>0</v>
-      </c>
-      <c r="D9" s="3">
+      <c r="C9" s="4">
+        <v>0</v>
+      </c>
+      <c r="D9" s="4">
         <v>-1</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
     </row>
     <row r="11" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="3">
-        <v>0</v>
-      </c>
-      <c r="D11" s="3">
+      <c r="C11" s="4">
+        <v>0</v>
+      </c>
+      <c r="D11" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
     </row>
     <row r="13" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="3">
-        <v>0</v>
-      </c>
-      <c r="D13" s="3">
+      <c r="C13" s="4">
+        <v>0</v>
+      </c>
+      <c r="D13" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
     </row>
     <row r="15" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" s="4">
         <v>2</v>
       </c>
-      <c r="C15" s="3">
-        <v>0</v>
-      </c>
-      <c r="D15" s="3">
+      <c r="C15" s="4">
+        <v>0</v>
+      </c>
+      <c r="D15" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
     </row>
     <row r="17" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="3">
-        <v>0</v>
-      </c>
-      <c r="D17" s="3">
+      <c r="C17" s="4">
+        <v>0</v>
+      </c>
+      <c r="D17" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
     </row>
     <row r="19" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="3">
-        <v>0</v>
-      </c>
-      <c r="D19" s="3">
+      <c r="C19" s="4">
+        <v>0</v>
+      </c>
+      <c r="D19" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B21" s="3">
+      <c r="B21" s="4">
         <v>1</v>
       </c>
-      <c r="C21" s="3">
-        <v>0</v>
-      </c>
-      <c r="D21" s="3">
+      <c r="C21" s="4">
+        <v>0</v>
+      </c>
+      <c r="D21" s="4">
         <v>-1</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
     </row>
     <row r="23" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B23" s="3">
+      <c r="B23" s="4">
         <v>2</v>
       </c>
-      <c r="C23" s="3">
-        <v>0</v>
-      </c>
-      <c r="D23" s="3">
+      <c r="C23" s="4">
+        <v>0</v>
+      </c>
+      <c r="D23" s="4">
         <v>-1</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
     </row>
     <row r="25" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C25" s="3">
-        <v>0</v>
-      </c>
-      <c r="D25" s="3">
-        <v>-1</v>
+      <c r="C25" s="4">
+        <v>0</v>
+      </c>
+      <c r="D25" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
@@ -781,65 +781,25 @@
       <c r="D27" s="1"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
+      <c r="A28" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B28" s="4"/>
-      <c r="C28" s="5">
-        <v>0</v>
-      </c>
-      <c r="D28" s="5">
-        <f>SUMPRODUCT(B5:B25,D5:D25)</f>
-        <v>-1</v>
+      <c r="B28" s="5"/>
+      <c r="C28" s="2">
+        <v>0</v>
+      </c>
+      <c r="D28" s="2">
+        <v>0.5</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="6"/>
       <c r="B29" s="6"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="A28:B29"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="C1:C4"/>
     <mergeCell ref="D1:D4"/>
@@ -853,6 +813,45 @@
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="D5:D6"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="A28:B29"/>
+    <mergeCell ref="C28:C29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
